--- a/gsem/gsem_output/symptoms_cfa/cfa_DWLS_results.xlsx
+++ b/gsem/gsem_output/symptoms_cfa/cfa_DWLS_results.xlsx
@@ -142,26 +142,24 @@
 attached base packages:
 [1] stats     graphics  grDevices utils     datasets  methods   base     
 other attached packages:
- [1] lavaan_0.6-19     rsvg_2.6.2        DiagrammeRsvg_0.1 DiagrammeR_1.0.11 GenomicSEM_0.0.5  mgsub_1.7.3      
- [7] gdata_3.0.1       data.table_1.17.0 devtools_2.4.5    usethis_3.1.0     tibble_3.2.1      dplyr_1.1.4      
-[13] ggplot2_3.5.2     reshape2_1.4.4   
+[1] rsvg_2.6.2        DiagrammeRsvg_0.1 DiagrammeR_1.0.11 lavaan_0.6-19     data.table_1.17.0
+[6] dplyr_1.1.4       GenomicSEM_0.0.5 
 loaded via a namespace (and not attached):
- [1] tidyselect_1.2.1      farver_2.1.2          R.utils_2.13.0        fastmap_1.2.0         promises_1.3.2       
- [6] digest_0.6.37         mime_0.13             lifecycle_1.0.4       ellipsis_0.3.2        magrittr_2.0.3       
-[11] compiler_4.5.0        rlang_1.1.6           tools_4.5.0           labeling_0.4.3        htmlwidgets_1.6.4    
-[16] pkgbuild_1.4.7        mnormt_2.1.1          curl_6.2.2            splitstackshape_1.4.8 plyr_1.8.9           
-[21] RColorBrewer_1.1-3    pkgload_1.4.0         miniUI_0.1.1.1        withr_3.0.2           purrr_1.0.4          
-[26] R.oo_1.27.0           grid_4.5.0            stats4_4.5.0          urlchecker_1.0.1      profvis_0.4.0        
-[31] xtable_1.8-4          e1071_1.7-16          MASS_7.3-65           scales_1.4.0          gtools_3.9.5         
-[36] iterators_1.0.14      cli_3.6.5             ragg_1.4.0            generics_0.1.3        remotes_2.5.0        
-[41] rstudioapi_0.17.1     tzdb_0.5.0            sessioninfo_1.2.3     visNetwork_2.1.2      cachem_1.1.0         
-[46] proxy_0.4-27          stringr_1.5.1         parallel_4.5.0        vctrs_0.6.5           V8_6.0.3             
-[51] Matrix_1.7-3          jsonlite_2.0.0        hms_1.1.3             systemfonts_1.2.2     embarktools_0.1.0    
-[56] foreach_1.5.2         glue_1.8.0            codetools_0.2-20      stringi_1.8.7         gtable_0.3.6         
-[61] later_1.4.2           quadprog_1.5-8        pillar_1.10.2         htmltools_0.5.8.1     R6_2.6.1             
-[66] textshaping_1.0.0     doParallel_1.0.17     shiny_1.10.0          pbivnorm_0.6.0        lattice_0.22-6       
-[71] readr_2.1.5           R.methodsS3_1.8.2     openxlsx_4.2.8        memoise_2.0.1         httpuv_1.6.16        
-[76] class_7.3-23          zip_2.3.2             Rcpp_1.0.14           fs_1.6.6              pkgconfig_2.0.3      
+ [1] generics_0.1.3        class_7.3-23          gtools_3.9.5          stringi_1.8.7        
+ [5] lattice_0.22-6        hms_1.1.3             digest_0.6.37         magrittr_2.0.3       
+ [9] grid_4.5.0            RColorBrewer_1.1-3    iterators_1.0.14      fastmap_1.2.0        
+[13] jsonlite_2.0.0        R.oo_1.27.0           foreach_1.5.2         doParallel_1.0.17    
+[17] plyr_1.8.9            Matrix_1.7-3          R.utils_2.13.0        zip_2.3.2            
+[21] e1071_1.7-16          pbivnorm_0.6.0        codetools_0.2-20      mnormt_2.1.1         
+[25] cli_3.6.5             rlang_1.1.6           R.methodsS3_1.8.2     visNetwork_2.1.2     
+[29] withr_3.0.2           tools_4.5.0           parallel_4.5.0        tzdb_0.5.0           
+[33] curl_6.2.2            vctrs_0.6.5           R6_2.6.1              stats4_4.5.0         
+[37] proxy_0.4-27          lifecycle_1.0.4       stringr_1.5.1         V8_6.0.3             
+[41] htmlwidgets_1.6.4     MASS_7.3-65           pkgconfig_2.0.3       pillar_1.10.2        
+[45] openxlsx_4.2.8        glue_1.8.0            Rcpp_1.0.14           tibble_3.2.1         
+[49] tidyselect_1.2.1      rstudioapi_0.17.1     htmltools_0.5.8.1     mgsub_1.7.3          
+[53] gdata_3.0.1           readr_2.1.5           compiler_4.5.0        quadprog_1.5-8       
+[57] splitstackshape_1.4.8
 ==== OBS TRAITS ====
 FFM, Insulin, AN, ANX_FS, BEBROAD, BMI, MDD_WtGain_Case, MDD_WtLoss_Case, OCSymptoms, PTSD_PCS, BMI_Childhood, BFP, Neurotic, Age_Menarche, Tanner_StageMidAdol, Dep_Sx
 ==== LDSC SHAPES ====
@@ -560,23 +558,23 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1160.5194</v>
+        <v>1007.7179</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1222.5194</v>
+        <v>1071.7179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9755</v>
+        <v>0.9789</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>0.1039</v>
+        <v>0.1005</v>
       </c>
       <c r="I3"/>
     </row>
@@ -610,23 +608,23 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>1160.5194</v>
+        <v>1007.7179</v>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1222.5194</v>
+        <v>1071.7179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9755</v>
+        <v>0.9789</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.1039</v>
+        <v>0.1005</v>
       </c>
       <c r="I5"/>
     </row>
@@ -635,23 +633,23 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>152.5671</v>
+        <v>-0.2344</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>144.5671</v>
+        <v>-6.2344</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0033</v>
+        <v>0.0001</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="I6"/>
     </row>
@@ -660,23 +658,23 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>152.5671</v>
+        <v>-0.2344</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>144.5671</v>
+        <v>-6.2344</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0033</v>
+        <v>0.0001</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="I7"/>
     </row>
@@ -785,7 +783,7 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>-0.155802</v>
+        <v>-0.14463</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -794,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.075083</v>
+        <v>1.069873</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -803,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.662256</v>
+        <v>0.620471</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -859,7 +857,7 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>-0.155802</v>
+        <v>-0.14463</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -868,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.075083</v>
+        <v>1.069873</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -877,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.662256</v>
+        <v>0.620471</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -951,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.155802055069344</v>
+        <v>-0.144629739475175</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -966,7 +964,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>1.07508263562977</v>
+        <v>1.06987348008004</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -1015,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.155802055069344</v>
+        <v>-0.144629739475175</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1030,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>1.07508263562977</v>
+        <v>1.06987348008004</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
